--- a/applies.xlsx
+++ b/applies.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dsfsdfsg</t>
+          <t>sdgfdfg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jdgf;g</t>
+          <t>bvbfg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dgfsdjg</t>
+          <t>+380664606978</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdgfdfg</t>
+          <t>sdfdbf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bvbfg</t>
+          <t>bfgbd</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+380664606978</t>
+          <t>234234</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,15 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>user_id</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>email</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
@@ -458,20 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>679021494</t>
+          <t>sdkf;s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfdbf</t>
+          <t>fsdh;fsjd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>bfgbd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>234234</t>
         </is>
@@ -480,22 +470,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>448279359</t>
+          <t>фівфівфів</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>disa</t>
+          <t>фівфівфіафукакіпвкпвппочтап</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>miron@dfdsafds</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>+380999999999999</t>
+          <t>646846846165165165464</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>¿</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1@g</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+380965196356</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdkf;s</t>
+          <t>dsfsdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fsdh;fsjd</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>234234</t>
+          <t>+380664606978</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,55 +449,31 @@
           <t>phone</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dsfsdf</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
+          <t>ed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+380664606978</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>фівфівфів</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>фівфівфіафукакіпвкпвппочтап</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>646846846165165165464</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>¿</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1@g</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>+380965196356</t>
+          <t>ed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>04/12/2023 14:56:42</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>dsflj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>dfsjld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ed</t>
+          <t>+380664606978</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>04/12/2023 14:56:42</t>
+          <t>04/12/2023 17:19:43</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dsflj</t>
+          <t>sdflkj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dfsjld</t>
+          <t>sdfjl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+380664606978</t>
+          <t>380664606978</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>04/12/2023 17:19:43</t>
+          <t>04/12/2023 17:31:40</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdflkj</t>
+          <t>dsfdsf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfjl</t>
+          <t>vbfvb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>380664606978</t>
+          <t>+380664606978</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>04/12/2023 17:31:40</t>
+          <t>11/12/2023 18:36:45</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dsfdsf</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vbfvb</t>
+          <t>pscfsicfs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+380664606978</t>
+          <t>+3804322323</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11/12/2023 18:36:45</t>
+          <t>12/12/2023 18:15:27</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>sdfsdf</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>pscfsicfs</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+3804322323</t>
+          <t>+380664606978</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12/12/2023 18:15:27</t>
+          <t>22/12/2023 15:30:25</t>
         </is>
       </c>
     </row>

--- a/applies.xlsx
+++ b/applies.xlsx
@@ -458,22 +458,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sdf</t>
+          <t>sdfsdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+380664606978</t>
-        </is>
-      </c>
+          <t>sdfijspdf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22/12/2023 15:30:25</t>
+          <t>28/12/2023 23:58:39</t>
         </is>
       </c>
     </row>
